--- a/TIEMPOS/archivo_tiempos1.xlsx
+++ b/TIEMPOS/archivo_tiempos1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,83 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.003474712371826172</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.004968404769897461</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.006158590316772461</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01226258277893066</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01644587516784668</v>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03681111335754395</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1135313510894775</v>
+      </c>
+      <c r="C8" t="n">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TIEMPOS/archivo_tiempos1.xlsx
+++ b/TIEMPOS/archivo_tiempos1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,171 @@
         <v>55</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0333549976348877</v>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.07175493240356445</v>
+      </c>
+      <c r="C10" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.03352594375610352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.00511622428894043</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.006080865859985352</v>
+      </c>
+      <c r="C13" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.008457422256469727</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01396489143371582</v>
+      </c>
+      <c r="C15" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.03303241729736328</v>
+      </c>
+      <c r="C16" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.005109071731567383</v>
+      </c>
+      <c r="C17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.003982782363891602</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01760387420654297</v>
+      </c>
+      <c r="C19" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.03680753707885742</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1018140316009521</v>
+      </c>
+      <c r="C21" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1086220741271973</v>
+      </c>
+      <c r="C22" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.130204439163208</v>
+      </c>
+      <c r="C23" t="n">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TIEMPOS/archivo_tiempos1.xlsx
+++ b/TIEMPOS/archivo_tiempos1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,6 +692,380 @@
         <v>46</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.03387022018432617</v>
+      </c>
+      <c r="C24" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0322728157043457</v>
+      </c>
+      <c r="C25" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.04091358184814453</v>
+      </c>
+      <c r="C26" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.03311276435852051</v>
+      </c>
+      <c r="C27" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.03889918327331543</v>
+      </c>
+      <c r="C28" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.03264713287353516</v>
+      </c>
+      <c r="C29" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.03111696243286133</v>
+      </c>
+      <c r="C30" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.03318691253662109</v>
+      </c>
+      <c r="C31" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0500636100769043</v>
+      </c>
+      <c r="C32" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.03543376922607422</v>
+      </c>
+      <c r="C33" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.05961489677429199</v>
+      </c>
+      <c r="C34" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.06034636497497559</v>
+      </c>
+      <c r="C35" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.07030105590820312</v>
+      </c>
+      <c r="C36" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.06045222282409668</v>
+      </c>
+      <c r="C37" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0106198787689209</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0084075927734375</v>
+      </c>
+      <c r="C39" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01127743721008301</v>
+      </c>
+      <c r="C40" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.02713894844055176</v>
+      </c>
+      <c r="C41" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.06136775016784668</v>
+      </c>
+      <c r="C42" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.008763790130615234</v>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.01094388961791992</v>
+      </c>
+      <c r="C44" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.01338505744934082</v>
+      </c>
+      <c r="C45" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.02849984169006348</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.05740737915039062</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.008788347244262695</v>
+      </c>
+      <c r="C48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.01177549362182617</v>
+      </c>
+      <c r="C49" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.01491236686706543</v>
+      </c>
+      <c r="C50" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>8</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.03994059562683105</v>
+      </c>
+      <c r="C51" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.07080698013305664</v>
+      </c>
+      <c r="C52" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.01008248329162598</v>
+      </c>
+      <c r="C53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.008528947830200195</v>
+      </c>
+      <c r="C54" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.01335382461547852</v>
+      </c>
+      <c r="C55" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>8</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.02847409248352051</v>
+      </c>
+      <c r="C56" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>9</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.06070470809936523</v>
+      </c>
+      <c r="C57" t="n">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
